--- a/capstone_data_dictionary.xlsx
+++ b/capstone_data_dictionary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomle\Documents\nss-data-analytics\projects\capstone\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{639495A7-04F3-4B1C-86FF-251D93EAC4C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30F4EC3E-94F7-4A1E-9F25-EEFFF53BBE98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A903B65A-E2D0-469C-904F-E031BEE3C2E3}"/>
   </bookViews>
@@ -504,7 +504,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
